--- a/const/evolution.xlsx
+++ b/const/evolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="620" windowWidth="27120" windowHeight="11740"/>
+    <workbookView xWindow="6900" yWindow="2760" windowWidth="27120" windowHeight="11740"/>
   </bookViews>
   <sheets>
     <sheet name="egg+" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -704,34 +704,36 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <f>C3*L3</f>
+        <f t="shared" ref="D3:D11" si="0">C3*L3</f>
         <v>30</v>
       </c>
       <c r="E3" s="2">
-        <f>D3*M3</f>
+        <f t="shared" ref="E3:E11" si="1">D3*M3</f>
         <v>120</v>
       </c>
       <c r="F3" s="2">
-        <f>E3*N3</f>
+        <f t="shared" ref="F3:F11" si="2">E3*N3</f>
         <v>600</v>
       </c>
       <c r="G3" s="2">
-        <v>1200</v>
+        <f>K3*0.5</f>
+        <v>2400</v>
       </c>
       <c r="H3" s="2">
-        <f>C3*L3</f>
+        <f t="shared" ref="H3:H11" si="3">C3*L3</f>
         <v>30</v>
       </c>
       <c r="I3" s="2">
-        <f>D3*M3</f>
+        <f t="shared" ref="I3:I11" si="4">D3*M3</f>
         <v>120</v>
       </c>
       <c r="J3" s="2">
-        <f>E3*N3</f>
+        <f t="shared" ref="J3:J11" si="5">E3*N3</f>
         <v>600</v>
       </c>
       <c r="K3" s="2">
-        <v>3600</v>
+        <f>J3*8</f>
+        <v>4800</v>
       </c>
       <c r="L3" s="2">
         <v>3</v>
@@ -757,34 +759,36 @@
         <v>20</v>
       </c>
       <c r="D4" s="2">
-        <f>C4*L4</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E4" s="2">
-        <f>D4*M4</f>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="F4" s="2">
-        <f>E4*N4</f>
+        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
       <c r="G4" s="2">
-        <v>2400</v>
+        <f t="shared" ref="G4:G11" si="6">K4*0.5</f>
+        <v>4800</v>
       </c>
       <c r="H4" s="2">
-        <f>C4*L4</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="I4" s="2">
-        <f>D4*M4</f>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="J4" s="2">
-        <f>E4*N4</f>
+        <f t="shared" si="5"/>
         <v>1200</v>
       </c>
       <c r="K4" s="2">
-        <v>7200</v>
+        <f t="shared" ref="K4:K11" si="7">J4*8</f>
+        <v>9600</v>
       </c>
       <c r="L4" s="2">
         <v>3</v>
@@ -810,34 +814,36 @@
         <v>20</v>
       </c>
       <c r="D5" s="2">
-        <f>C5*L5</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E5" s="2">
-        <f>D5*M5</f>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="F5" s="2">
-        <f>E5*N5</f>
+        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
       <c r="G5" s="2">
-        <v>2400</v>
+        <f t="shared" si="6"/>
+        <v>4800</v>
       </c>
       <c r="H5" s="2">
-        <f>C5*L5</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="I5" s="2">
-        <f>D5*M5</f>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="J5" s="2">
-        <f>E5*N5</f>
+        <f t="shared" si="5"/>
         <v>1200</v>
       </c>
       <c r="K5" s="2">
-        <v>7200</v>
+        <f t="shared" si="7"/>
+        <v>9600</v>
       </c>
       <c r="L5" s="2">
         <v>3</v>
@@ -863,34 +869,36 @@
         <v>30</v>
       </c>
       <c r="D6" s="2">
-        <f>C6*L6</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="E6" s="2">
-        <f>D6*M6</f>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="F6" s="2">
-        <f>E6*N6</f>
+        <f t="shared" si="2"/>
         <v>1800</v>
       </c>
       <c r="G6" s="2">
-        <v>3600</v>
+        <f t="shared" si="6"/>
+        <v>7200</v>
       </c>
       <c r="H6" s="2">
-        <f>C6*L6</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="I6" s="2">
-        <f>D6*M6</f>
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
       <c r="J6" s="2">
-        <f>E6*N6</f>
+        <f t="shared" si="5"/>
         <v>1800</v>
       </c>
       <c r="K6" s="2">
-        <v>10800</v>
+        <f t="shared" si="7"/>
+        <v>14400</v>
       </c>
       <c r="L6" s="2">
         <v>3</v>
@@ -916,34 +924,36 @@
         <v>30</v>
       </c>
       <c r="D7" s="2">
-        <f>C7*L7</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="E7" s="2">
-        <f>D7*M7</f>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="F7" s="2">
-        <f>E7*N7</f>
+        <f t="shared" si="2"/>
         <v>1800</v>
       </c>
       <c r="G7" s="2">
-        <v>3600</v>
+        <f t="shared" si="6"/>
+        <v>7200</v>
       </c>
       <c r="H7" s="2">
-        <f>C7*L7</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="I7" s="2">
-        <f>D7*M7</f>
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
       <c r="J7" s="2">
-        <f>E7*N7</f>
+        <f t="shared" si="5"/>
         <v>1800</v>
       </c>
       <c r="K7" s="2">
-        <v>10800</v>
+        <f t="shared" si="7"/>
+        <v>14400</v>
       </c>
       <c r="L7" s="2">
         <v>3</v>
@@ -969,34 +979,36 @@
         <v>30</v>
       </c>
       <c r="D8" s="2">
-        <f>C8*L8</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="E8" s="2">
-        <f>D8*M8</f>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="F8" s="2">
-        <f>E8*N8</f>
+        <f t="shared" si="2"/>
         <v>1800</v>
       </c>
       <c r="G8" s="2">
-        <v>3600</v>
+        <f t="shared" si="6"/>
+        <v>7200</v>
       </c>
       <c r="H8" s="2">
-        <f>C8*L8</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="I8" s="2">
-        <f>D8*M8</f>
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
       <c r="J8" s="2">
-        <f>E8*N8</f>
+        <f t="shared" si="5"/>
         <v>1800</v>
       </c>
       <c r="K8" s="2">
-        <v>10800</v>
+        <f t="shared" si="7"/>
+        <v>14400</v>
       </c>
       <c r="L8" s="2">
         <v>3</v>
@@ -1022,34 +1034,36 @@
         <v>40</v>
       </c>
       <c r="D9" s="2">
-        <f>C9*L9</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E9" s="2">
-        <f>D9*M9</f>
+        <f t="shared" si="1"/>
         <v>480</v>
       </c>
       <c r="F9" s="2">
-        <f>E9*N9</f>
+        <f t="shared" si="2"/>
         <v>2400</v>
       </c>
       <c r="G9" s="2">
-        <v>4800</v>
+        <f t="shared" si="6"/>
+        <v>9600</v>
       </c>
       <c r="H9" s="2">
-        <f>C9*L9</f>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="I9" s="2">
-        <f>D9*M9</f>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="J9" s="2">
-        <f>E9*N9</f>
+        <f t="shared" si="5"/>
         <v>2400</v>
       </c>
       <c r="K9" s="2">
-        <v>12000</v>
+        <f t="shared" si="7"/>
+        <v>19200</v>
       </c>
       <c r="L9" s="2">
         <v>3</v>
@@ -1075,34 +1089,36 @@
         <v>40</v>
       </c>
       <c r="D10" s="2">
-        <f>C10*L10</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E10" s="2">
-        <f>D10*M10</f>
+        <f t="shared" si="1"/>
         <v>480</v>
       </c>
       <c r="F10" s="2">
-        <f>E10*N10</f>
+        <f t="shared" si="2"/>
         <v>2400</v>
       </c>
       <c r="G10" s="2">
-        <v>4800</v>
+        <f t="shared" si="6"/>
+        <v>9600</v>
       </c>
       <c r="H10" s="2">
-        <f>C10*L10</f>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="I10" s="2">
-        <f>D10*M10</f>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="J10" s="2">
-        <f>E10*N10</f>
+        <f t="shared" si="5"/>
         <v>2400</v>
       </c>
       <c r="K10" s="2">
-        <v>12000</v>
+        <f t="shared" si="7"/>
+        <v>19200</v>
       </c>
       <c r="L10" s="2">
         <v>3</v>
@@ -1128,34 +1144,36 @@
         <v>50</v>
       </c>
       <c r="D11" s="2">
-        <f>C11*L11</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="E11" s="2">
-        <f>D11*M11</f>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="F11" s="2">
-        <f>E11*N11</f>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="G11" s="2">
-        <v>6000</v>
+        <f t="shared" si="6"/>
+        <v>12000</v>
       </c>
       <c r="H11" s="2">
-        <f>C11*L11</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="I11" s="2">
-        <f>D11*M11</f>
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="J11" s="2">
-        <f>E11*N11</f>
+        <f t="shared" si="5"/>
         <v>3000</v>
       </c>
       <c r="K11" s="2">
-        <v>18000</v>
+        <f t="shared" si="7"/>
+        <v>24000</v>
       </c>
       <c r="L11" s="2">
         <v>3</v>

--- a/const/evolution.xlsx
+++ b/const/evolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="2760" windowWidth="27120" windowHeight="11740"/>
+    <workbookView xWindow="1100" yWindow="2640" windowWidth="27120" windowHeight="11740"/>
   </bookViews>
   <sheets>
     <sheet name="egg+" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -716,7 +716,7 @@
         <v>600</v>
       </c>
       <c r="G3" s="2">
-        <f>K3*0.5</f>
+        <f>F3*4</f>
         <v>2400</v>
       </c>
       <c r="H3" s="2">
@@ -732,8 +732,8 @@
         <v>600</v>
       </c>
       <c r="K3" s="2">
-        <f>J3*8</f>
-        <v>4800</v>
+        <f>J3*10</f>
+        <v>6000</v>
       </c>
       <c r="L3" s="2">
         <v>3</v>
@@ -771,7 +771,7 @@
         <v>1200</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G11" si="6">K4*0.5</f>
+        <f t="shared" ref="G4:G11" si="6">F4*4</f>
         <v>4800</v>
       </c>
       <c r="H4" s="2">
@@ -787,8 +787,8 @@
         <v>1200</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K11" si="7">J4*8</f>
-        <v>9600</v>
+        <f t="shared" ref="K4:K11" si="7">J4*10</f>
+        <v>12000</v>
       </c>
       <c r="L4" s="2">
         <v>3</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" si="7"/>
-        <v>9600</v>
+        <v>12000</v>
       </c>
       <c r="L5" s="2">
         <v>3</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" si="7"/>
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="L6" s="2">
         <v>3</v>
@@ -953,7 +953,7 @@
       </c>
       <c r="K7" s="2">
         <f t="shared" si="7"/>
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="L7" s="2">
         <v>3</v>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" si="7"/>
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="L8" s="2">
         <v>3</v>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="K9" s="2">
         <f t="shared" si="7"/>
-        <v>19200</v>
+        <v>24000</v>
       </c>
       <c r="L9" s="2">
         <v>3</v>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="K10" s="2">
         <f t="shared" si="7"/>
-        <v>19200</v>
+        <v>24000</v>
       </c>
       <c r="L10" s="2">
         <v>3</v>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="K11" s="2">
         <f t="shared" si="7"/>
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L11" s="2">
         <v>3</v>
